--- a/data/labour_rates.xlsx
+++ b/data/labour_rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengzh/MDS/532_labs/IA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengzh/MDS/532_labs/trades_labourcost/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08F369-6F92-5144-984A-327F5E7952A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B920D-4C50-AD42-927D-B1294F4771D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1360" windowWidth="26840" windowHeight="15340" xr2:uid="{6341B012-81CB-C746-8BD0-08DA5C4D0883}"/>
+    <workbookView xWindow="2560" yWindow="1520" windowWidth="26840" windowHeight="12680" activeTab="2" xr2:uid="{6341B012-81CB-C746-8BD0-08DA5C4D0883}"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>trade</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>rate_daily</t>
-  </si>
-  <si>
-    <t>Sunday_paid</t>
   </si>
 </sst>
 </file>
@@ -490,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CFABF-774C-4445-BE34-61FD439476FB}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,7 +651,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C926C27-FFEC-C64E-A48B-41570D9405D7}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,10 +1022,9 @@
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,11 +1034,8 @@
       <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,11 +1045,8 @@
       <c r="C2" s="3">
         <v>135</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,11 +1056,8 @@
       <c r="C3" s="3">
         <v>175</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,11 +1067,8 @@
       <c r="C4" s="3">
         <v>185</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,11 +1078,8 @@
       <c r="C5" s="3">
         <v>87</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1108,11 +1089,8 @@
       <c r="C6" s="3">
         <v>146</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1122,11 +1100,8 @@
       <c r="C7" s="3">
         <v>168.5</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1136,11 +1111,8 @@
       <c r="C8" s="3">
         <v>130</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,11 +1122,8 @@
       <c r="C9" s="3">
         <v>140</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,11 +1133,8 @@
       <c r="C10" s="3">
         <v>160</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1178,11 +1144,8 @@
       <c r="C11" s="3">
         <v>84.25</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,11 +1155,8 @@
       <c r="C12" s="3">
         <v>141.25</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1205,9 +1165,6 @@
       </c>
       <c r="C13" s="3">
         <v>163</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
